--- a/public/templates/IT_Stakeholder_Register_Analysis.xlsx
+++ b/public/templates/IT_Stakeholder_Register_Analysis.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>Enterprise AI/ML Implementation</t>
+          <t>Enterprise Cloud Infrastructure Migration</t>
         </is>
       </c>
     </row>
@@ -643,6 +643,7 @@
         </is>
       </c>
     </row>
+    <row r="13"/>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
@@ -734,6 +735,7 @@
       <c r="G20" s="6" t="n"/>
       <c r="H20" s="7" t="n"/>
     </row>
+    <row r="21"/>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
@@ -885,6 +887,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
@@ -1617,6 +1620,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
@@ -2288,6 +2292,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
@@ -2796,6 +2801,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
@@ -3407,6 +3413,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
